--- a/bc32e_capstone/Phan chia cong viec.xlsx
+++ b/bc32e_capstone/Phan chia cong viec.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTW\Cybersoft\FrontEnd\Buoi_30_React\BT nop\BC32E_LeNguyenTheKhoa_HuynhQuangCuong_Capstone_ReactJS\bc32e_capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoa2\OneDrive\Máy tính\BC32E_LeNguyenTheKhoa_HuynhQuangCuong_Capstone_ReactJS\bc32e_capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605ED3B-9A7E-441C-AC43-0FB6E6795D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -126,12 +138,33 @@
   </si>
   <si>
     <t>BẢNG PHÂN CHIA CÔNG VIỆC NHÓM 1</t>
+  </si>
+  <si>
+    <t>Carousel</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>Movie Detail</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Movie detail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm"/>
   </numFmts>
@@ -251,9 +284,6 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -294,6 +324,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,697 +607,911 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="3" spans="2:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="C4" s="8">
+        <v>44850</v>
+      </c>
+      <c r="D4" s="8">
+        <v>44872</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8">
+        <v>44851</v>
+      </c>
+      <c r="D5" s="8">
+        <v>44862</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8">
+        <v>44862</v>
+      </c>
+      <c r="H5" s="8">
+        <v>44862</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8">
+        <v>44854</v>
+      </c>
+      <c r="D6" s="8">
+        <v>44860</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="8">
+        <v>44862</v>
+      </c>
+      <c r="H6" s="8">
+        <v>44862</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8">
+        <v>44855</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44861</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8">
+        <v>44862</v>
+      </c>
+      <c r="H7" s="8">
+        <v>44862</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44856</v>
+      </c>
+      <c r="D8" s="8">
+        <v>44862</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="8">
+        <v>44862</v>
+      </c>
+      <c r="H8" s="8">
+        <v>44862</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44861</v>
+      </c>
+      <c r="D9" s="8">
+        <v>44866</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44861</v>
+      </c>
+      <c r="D10" s="8">
+        <v>44866</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8">
+        <v>44866</v>
+      </c>
+      <c r="H10" s="8">
+        <v>44866</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8">
+        <v>44867</v>
+      </c>
+      <c r="D11" s="8">
+        <v>44872</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44867</v>
+      </c>
+      <c r="D12" s="8">
+        <v>44872</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8">
+        <v>44870</v>
+      </c>
+      <c r="H12" s="8">
+        <v>44872</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:11" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="C13" s="8">
+        <v>44869</v>
+      </c>
+      <c r="D13" s="8">
+        <v>44872</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="8">
+        <v>44869</v>
+      </c>
+      <c r="H13" s="8">
+        <v>44872</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C14" s="8">
         <v>44854</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D14" s="8">
         <v>44864</v>
       </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C15" s="8">
         <v>44854</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D15" s="8">
         <v>44855</v>
       </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="9">
-        <f>D9+1</f>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="8">
+        <f>D15+1</f>
         <v>44856</v>
       </c>
-      <c r="H9" s="9">
-        <f>G9</f>
+      <c r="H15" s="8">
+        <f>G15</f>
         <v>44856</v>
       </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C16" s="8">
         <v>44854</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D16" s="8">
         <v>44855</v>
       </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9">
-        <f t="shared" ref="G10:H22" si="0">D10+1</f>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" ref="G16:G28" si="0">D16+1</f>
         <v>44856</v>
       </c>
-      <c r="H10" s="9">
-        <f t="shared" ref="H10:H26" si="1">G10</f>
+      <c r="H16" s="8">
+        <f t="shared" ref="H16:H32" si="1">G16</f>
         <v>44856</v>
       </c>
-      <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C17" s="8">
         <v>44855</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D17" s="8">
         <v>44856</v>
       </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>44857</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H17" s="8">
         <f t="shared" si="1"/>
         <v>44857</v>
       </c>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C18" s="8">
         <v>44856</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D18" s="8">
         <v>44860</v>
       </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>44861</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H18" s="8">
         <f t="shared" si="1"/>
         <v>44861</v>
       </c>
-      <c r="I12" s="10">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C19" s="8">
         <v>44856</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D19" s="8">
         <v>44857</v>
       </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="8">
         <f t="shared" si="0"/>
         <v>44858</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H19" s="8">
         <f t="shared" si="1"/>
         <v>44858</v>
       </c>
-      <c r="I13" s="10">
-        <v>1</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C20" s="8">
         <v>44857</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D20" s="8">
         <v>44858</v>
       </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8">
         <f t="shared" si="0"/>
         <v>44859</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H20" s="8">
         <f t="shared" si="1"/>
         <v>44859</v>
       </c>
-      <c r="I14" s="10">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C21" s="8">
         <v>44858</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D21" s="8">
         <v>44859</v>
       </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8">
         <f t="shared" si="0"/>
         <v>44860</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H21" s="8">
         <f t="shared" si="1"/>
         <v>44860</v>
       </c>
-      <c r="I15" s="10">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C22" s="8">
         <v>44858</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D22" s="8">
         <v>44859</v>
       </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8">
         <f t="shared" si="0"/>
         <v>44860</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H22" s="8">
         <f t="shared" si="1"/>
         <v>44860</v>
       </c>
-      <c r="I16" s="10">
-        <v>1</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C23" s="8">
         <v>44859</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D23" s="8">
         <v>44860</v>
       </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="8">
         <f t="shared" si="0"/>
         <v>44861</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H23" s="8">
         <f t="shared" si="1"/>
         <v>44861</v>
       </c>
-      <c r="I17" s="10">
-        <v>1</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C24" s="8">
         <v>44861</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D24" s="8">
         <v>44861</v>
       </c>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="8">
         <f t="shared" si="0"/>
         <v>44862</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H24" s="8">
         <f t="shared" si="1"/>
         <v>44862</v>
       </c>
-      <c r="I18" s="10">
-        <v>1</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C25" s="8">
         <v>44861</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D25" s="8">
         <v>44862</v>
       </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="8">
         <f t="shared" si="0"/>
         <v>44863</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H25" s="8">
         <f t="shared" si="1"/>
         <v>44863</v>
       </c>
-      <c r="I19" s="10">
-        <v>1</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C26" s="8">
         <v>44862</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D26" s="8">
         <v>44863</v>
       </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="8">
         <f t="shared" si="0"/>
         <v>44864</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H26" s="8">
         <f t="shared" si="1"/>
         <v>44864</v>
       </c>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C27" s="8">
         <v>44863</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D27" s="8">
         <v>44864</v>
       </c>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="8">
         <f t="shared" si="0"/>
         <v>44865</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H27" s="8">
         <f t="shared" si="1"/>
         <v>44865</v>
       </c>
-      <c r="I21" s="10">
-        <v>1</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C28" s="8">
         <v>44863</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D28" s="8">
         <v>44864</v>
       </c>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="8">
         <f t="shared" si="0"/>
         <v>44865</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H28" s="8">
         <f t="shared" si="1"/>
         <v>44865</v>
       </c>
-      <c r="I22" s="10">
-        <v>1</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="2:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="I28" s="9">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="2:11" ht="56" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C30" s="8">
         <v>44865</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D30" s="8">
         <v>44868</v>
       </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="2:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C31" s="8">
         <v>44866</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D31" s="8">
         <v>44867</v>
       </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="9">
-        <f t="shared" ref="G25:G26" si="2">D25+1</f>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" ref="G31:G32" si="2">D31+1</f>
         <v>44868</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H31" s="8">
         <f t="shared" si="1"/>
         <v>44868</v>
       </c>
-      <c r="I25" s="10">
-        <v>1</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="2:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="B32" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C32" s="8">
         <v>44867</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D32" s="8">
         <v>44868</v>
       </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="8">
         <f t="shared" si="2"/>
         <v>44869</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H32" s="8">
         <f t="shared" si="1"/>
         <v>44869</v>
       </c>
-      <c r="I26" s="10">
-        <v>1</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="14"/>
+      <c r="I32" s="9">
+        <v>1</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/bc32e_capstone/Phan chia cong viec.xlsx
+++ b/bc32e_capstone/Phan chia cong viec.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoa2\OneDrive\Máy tính\BC32E_LeNguyenTheKhoa_HuynhQuangCuong_Capstone_ReactJS\bc32e_capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTW\Cybersoft\FrontEnd\Buoi_30_React\BT nop\BC32E_LeNguyenTheKhoa_HuynhQuangCuong_Capstone_ReactJS\bc32e_capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605ED3B-9A7E-441C-AC43-0FB6E6795D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -164,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm"/>
   </numFmts>
@@ -607,21 +606,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D1" s="17" t="s">
         <v>31</v>
       </c>
@@ -631,7 +630,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
@@ -689,7 +688,7 @@
       </c>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
@@ -715,7 +714,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
@@ -745,7 +744,7 @@
       </c>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
@@ -775,7 +774,7 @@
       </c>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
@@ -805,7 +804,7 @@
       </c>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
@@ -827,7 +826,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
@@ -857,7 +856,7 @@
       </c>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
@@ -883,7 +882,7 @@
       </c>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
@@ -913,7 +912,7 @@
       </c>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
@@ -943,7 +942,7 @@
       </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
@@ -965,7 +964,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
@@ -993,11 +992,11 @@
         <v>1</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>13</v>
       </c>
@@ -1025,11 +1024,11 @@
         <v>1</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>14</v>
       </c>
@@ -1057,11 +1056,11 @@
         <v>1</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
@@ -1089,11 +1088,11 @@
         <v>1</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
@@ -1121,11 +1120,11 @@
         <v>1</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
@@ -1153,11 +1152,11 @@
         <v>1</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>17</v>
       </c>
@@ -1185,11 +1184,11 @@
         <v>1</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>18</v>
       </c>
@@ -1217,11 +1216,11 @@
         <v>1</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>29</v>
       </c>
@@ -1249,11 +1248,11 @@
         <v>1</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>19</v>
       </c>
@@ -1281,11 +1280,11 @@
         <v>1</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>21</v>
       </c>
@@ -1313,11 +1312,11 @@
         <v>1</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>23</v>
       </c>
@@ -1345,11 +1344,11 @@
         <v>1</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>24</v>
       </c>
@@ -1377,11 +1376,11 @@
         <v>1</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>25</v>
       </c>
@@ -1409,11 +1408,11 @@
         <v>1</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -1422,12 +1421,10 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="J29" s="10"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="30" spans="2:11" ht="56" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="72" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>26</v>
       </c>
@@ -1449,7 +1446,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="2:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>27</v>
       </c>
@@ -1481,7 +1478,7 @@
       </c>
       <c r="K31" s="13"/>
     </row>
-    <row r="32" spans="2:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
         <v>28</v>
       </c>

--- a/bc32e_capstone/Phan chia cong viec.xlsx
+++ b/bc32e_capstone/Phan chia cong viec.xlsx
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K4" s="11"/>
     </row>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K6" s="11"/>
     </row>
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K7" s="11"/>
     </row>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K8" s="11"/>
     </row>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K10" s="11"/>
     </row>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K11" s="11"/>
     </row>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K12" s="11"/>
     </row>
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K13" s="11"/>
     </row>

--- a/bc32e_capstone/Phan chia cong viec.xlsx
+++ b/bc32e_capstone/Phan chia cong viec.xlsx
@@ -610,7 +610,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J31" sqref="J31:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K4" s="11"/>
     </row>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K6" s="11"/>
     </row>
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K7" s="11"/>
     </row>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K8" s="11"/>
     </row>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K10" s="11"/>
     </row>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K11" s="11"/>
     </row>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K12" s="11"/>
     </row>
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K13" s="11"/>
     </row>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K31" s="13"/>
     </row>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K32" s="13"/>
     </row>

--- a/bc32e_capstone/Phan chia cong viec.xlsx
+++ b/bc32e_capstone/Phan chia cong viec.xlsx
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K31" s="13"/>
     </row>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K32" s="13"/>
     </row>
